--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/사업부별 매출액.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/2. 표시 형식/사업부별 매출액.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\엑셀마왕_예제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\2. 표시 형식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28ABD99-F75F-4CC6-AD75-F12A031A1E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AC477E-F515-46E3-92B4-42498CE1836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12564" yWindow="5304" windowWidth="19680" windowHeight="15804" xr2:uid="{926157B3-9F72-4214-B7E6-DDB43C5099B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{926157B3-9F72-4214-B7E6-DDB43C5099B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,17 +78,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -155,11 +144,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>단위 : 원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>■ 사업부별 매출액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 : 백만원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -167,8 +156,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#,##0,,"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -289,15 +279,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,6 +293,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -649,265 +639,265 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.59765625" style="1"/>
+    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="5.0999999999999996" customHeight="1"/>
-    <row r="2" spans="2:7" ht="27.6">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:7" ht="26.25">
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="2:7" ht="3" customHeight="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <f t="shared" ref="C7:C14" si="0">SUM(D7:G7)</f>
         <v>3973132100</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <v>593044900</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <v>693637000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="8">
         <v>1196016800</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="8">
         <v>1490433400</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>1643292200</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>221117500</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>340493700</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="8">
         <v>473553300</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="8">
         <v>608127700</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>1944484800</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <v>301017400</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <v>419222400</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="8">
         <v>342795600</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="8">
         <v>881449400</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>1996349500</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <v>483758000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <v>310401300</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="8">
         <v>536740700</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="8">
         <v>665449500</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>3272525500</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <v>797974000</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="8">
         <v>510815800</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="8">
         <v>1046094100</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="8">
         <v>917641600</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>4785889500</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <v>1094745700</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <v>1006049700</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="8">
         <v>1333993900</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="8">
         <v>1351100200</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>5968526000</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <v>1088300000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="8">
         <v>1436954200</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="8">
         <v>2155604300</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="8">
         <v>1287667500</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>1880903600</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <v>606165000</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="8">
         <v>342922100</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="8">
         <v>567900700</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="8">
         <v>363915800</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21.6" customHeight="1">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <f>SUM(C7:C14)</f>
         <v>25465103200</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <f>SUM(D7:D14)</f>
         <v>5186122500</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="7">
         <f>SUM(E7:E14)</f>
         <v>5060496200</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="7">
         <f>SUM(F7:F14)</f>
         <v>7652699400</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="7">
         <f>SUM(G7:G14)</f>
         <v>7565785100</v>
       </c>
